--- a/biology/Botanique/George_Ledyard_Stebbins/George_Ledyard_Stebbins.xlsx
+++ b/biology/Botanique/George_Ledyard_Stebbins/George_Ledyard_Stebbins.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">George Ledyard Stebbins est un généticien et un botaniste américain, né le 6 janvier 1906 à Lawrence dans l'État de New York et mort le 19 janvier 2000 à Davis en Californie.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Il est le fils de George Ledyard Stebbins et d’Edith Alden née Candler. Il obtient son Bachelor of Arts en 1928 à Harvard, son Master of Arts en 1929 et son Ph. D. en 1931. Il se marie le 14 juin 1931 avec Margaret Chamberlaine, union dont il aura quatre enfants.
 Stebbins est d’abord instructeur à l’université Colgate de 1931 à 1935, puis à l’université de Berkeley de 1935 à 1950 et où il enseigne la génétique de 1947 à 1950. Il part ensuite à l’Université Davis de Californie. Il y dirigera le département de génétique de 1957 à 1963 et où il finira comme professeur émérite. Après son divorce, il se remarie le 20 juillet 1958 avec Barbara Brumley.
@@ -547,7 +561,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Notice nécrologique de Ellen Dean parue dans Plant Science Bulletin, 46 (1) - Spring 2000 (en anglais)
 Allen G. Debus (dir.) (1968). World Who’s Who in Science. A Biographical Dictionary of Notable Scientists from Antiquity to the Present. Marquis-Who’s Who (Chicago) : xvi + 1855 p.</t>
